--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2698279.704475044</v>
+        <v>2691106.415764762</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.735702201</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>22.26486821531729</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>155.3361305180218</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>124.4041478535646</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>242.6304335797783</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>21.57990476584695</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.46996883366168</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>337.9695654687764</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464222</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129679</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>105.9300236555668</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.954677356401</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.1649833439791</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.87637597787511</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>128.0041052504326</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,10 +1189,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.13835619566984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>75.21207662142776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>81.1864702949415</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>187.6072390347054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.1198952263096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>68.71547553996709</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18.96996685211559</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>146.276201123756</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.31227899301602</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.19536159529849</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>161.7561767177151</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>59.32456467617133</v>
+        <v>135.2698980745979</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.9392980776813</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>134.7426179953493</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>242.1997565201858</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3796,10 +3796,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498025</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>103.2872317757223</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>76.57971109536211</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="C2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="D2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="E2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="F2" t="n">
-        <v>316.353594055456</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4357,25 +4357,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029593</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>874.2455409289014</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>874.2455409289014</v>
+        <v>515.103310552464</v>
       </c>
       <c r="V2" t="n">
-        <v>874.2455409289014</v>
+        <v>515.103310552464</v>
       </c>
       <c r="W2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="X2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.2995674921788</v>
+        <v>515.103310552464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>422.8801621312818</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="C3" t="n">
         <v>248.4271328501548</v>
@@ -4406,55 +4406,55 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114808</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3494183114808</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>836.17674519153</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>836.17674519153</v>
+        <v>710.5159897838893</v>
       </c>
       <c r="V3" t="n">
-        <v>836.17674519153</v>
+        <v>710.5159897838893</v>
       </c>
       <c r="W3" t="n">
-        <v>591.0954991513499</v>
+        <v>456.2786330556876</v>
       </c>
       <c r="X3" t="n">
-        <v>591.0954991513499</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="Y3" t="n">
-        <v>591.0954991513499</v>
+        <v>248.4271328501548</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.6779638230626</v>
+        <v>386.1265029389124</v>
       </c>
       <c r="C5" t="n">
-        <v>482.6779638230626</v>
+        <v>386.1265029389124</v>
       </c>
       <c r="D5" t="n">
-        <v>412.5062781324953</v>
+        <v>386.1265029389124</v>
       </c>
       <c r="E5" t="n">
-        <v>412.5062781324953</v>
+        <v>386.1265029389124</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832918</v>
+        <v>44.74310347550191</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380349</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456879</v>
+        <v>220.1747338456867</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039977</v>
+        <v>474.0852112039958</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494162</v>
+        <v>773.2160860494134</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635718</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293124</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="T5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="U5" t="n">
-        <v>1166.509506436747</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="V5" t="n">
-        <v>835.4466190931768</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="W5" t="n">
-        <v>482.6779638230626</v>
+        <v>1135.389868115569</v>
       </c>
       <c r="X5" t="n">
-        <v>482.6779638230626</v>
+        <v>761.924109854489</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.6779638230626</v>
+        <v>761.924109854489</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>476.4104410107383</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>476.4104410107383</v>
+        <v>484.4695931075354</v>
       </c>
       <c r="D6" t="n">
-        <v>327.4760313494871</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>168.2385763440316</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2385763440316</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782854</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361414</v>
+        <v>195.5446164760261</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822777</v>
+        <v>479.8626256221617</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202357</v>
+        <v>848.1818601601183</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.413296858194</v>
+        <v>949.3968358693949</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706685</v>
+        <v>1257.711717241714</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706685</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.17437210748</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.17437210748</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="U6" t="n">
-        <v>1127.174348212968</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="V6" t="n">
-        <v>892.0222399812251</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="W6" t="n">
-        <v>892.0222399812251</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>684.1707397756923</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>476.4104410107383</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771378</v>
+        <v>176.653117965624</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771366</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0999017588816</v>
+        <v>32.0999017588812</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611273</v>
+        <v>90.61654790611198</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236689</v>
+        <v>162.7032697236677</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400021</v>
+        <v>238.5105468400007</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057947</v>
+        <v>292.5145415057929</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="T7" t="n">
-        <v>257.7527213657311</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="U7" t="n">
-        <v>257.7527213657311</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="V7" t="n">
-        <v>257.7527213657311</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="W7" t="n">
-        <v>257.7527213657311</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918656</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918656</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>325.6879402326646</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>175.5713008203288</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.0827848727882</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>588.7879514845233</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>438.6713120721876</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.7582184897944</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.7582184897944</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.7582184897944</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240057</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.0827848727882</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5363,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.055751909234</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365139</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.3431626812559</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>743.3431626812559</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>593.2265232689201</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.3431626812559</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1564.731711769082</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1894.594339433115</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.134404651812</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>431.4439433172803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>284.5539958193699</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>116.3786741391905</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3786741391905</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.041841080102</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744135</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962832</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3774.981524342494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4513.180824421001</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4513.180824421001</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4513.180824421001</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4223.763654384041</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>3995.774103486024</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3774.981524342494</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6265,7 +6265,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3824.109336418584</v>
+        <v>345.2565865023504</v>
       </c>
       <c r="C28" t="n">
-        <v>3824.109336418584</v>
+        <v>176.3204035744435</v>
       </c>
       <c r="D28" t="n">
-        <v>3673.992697006248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3673.992697006248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3673.992697006248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3505.817375326069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3505.817375326069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4295.174971285785</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>4005.757801248824</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X28" t="n">
-        <v>4005.757801248824</v>
+        <v>526.9050513325901</v>
       </c>
       <c r="Y28" t="n">
-        <v>4005.757801248824</v>
+        <v>526.9050513325901</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2392.657822921639</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4697.464495521652</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4697.464495521652</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.33585673521</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4153.651368529323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4153.651368529323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6679,13 +6679,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,13 +6733,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3630.613787997932</v>
+        <v>850.2141304319076</v>
       </c>
       <c r="C34" t="n">
-        <v>3630.613787997932</v>
+        <v>681.2779475040007</v>
       </c>
       <c r="D34" t="n">
-        <v>3630.613787997932</v>
+        <v>531.161308091665</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294729</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294729</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.02050893291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>4148.02050893291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>3858.603338895949</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X34" t="n">
-        <v>3630.613787997932</v>
+        <v>1071.006709575438</v>
       </c>
       <c r="Y34" t="n">
-        <v>3630.613787997932</v>
+        <v>850.2141304319076</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,22 +6949,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.2185435662825</v>
+        <v>552.3735683412854</v>
       </c>
       <c r="C37" t="n">
-        <v>412.2823606383756</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>233.3207460010427</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>233.3207460010427</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>233.3207460010427</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028587</v>
@@ -7095,7 +7095,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>754.894602230607</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X37" t="n">
-        <v>754.894602230607</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.894602230607</v>
+        <v>734.0220331715251</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514077</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>539.5926371926334</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9127704725951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7332,7 +7332,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>965.1414130642022</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>965.1414130642022</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>965.1414130642022</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.3488339206721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,7 +7396,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7405,43 +7405,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1394.585733410708</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1194.66572332626</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>970.8803081157661</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>970.8803081157661</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>716.1958199098792</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>426.7786498729187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>933.2366688293934</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>217.2853909287126</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>269.6013618017768</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948387</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835735</v>
+        <v>450.1033532835727</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470459</v>
+        <v>167.8129993019139</v>
       </c>
       <c r="O6" t="n">
-        <v>231.3173975354892</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936153</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>199.7396287231155</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>148.1350559470645</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>213.2603911806629</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>297.2466435761027</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>5.100663089359642</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.72735807259463</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.97741431738942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.46475812578521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>77.71848710660208</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>91.44927861215639</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>75.27135993463327</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>70.30319402519633</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>64.2238838689735</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>36.1646332658882</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>87.10939797039785</v>
+        <v>11.16406457197124</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.892682104256039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>31.75095046802829</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.937886803642186</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.677120628070469</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>149.129944293675</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791022.4183502592</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448195</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="I2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934484</v>
@@ -26352,10 +26352,10 @@
         <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703822</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252108</v>
+        <v>316711.9424252125</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313417</v>
+        <v>24677.24609313382</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817138</v>
+        <v>76496.15793817173</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870323</v>
+        <v>269877.2512870327</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26432,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230229</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485703</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158690.9937660788</v>
+        <v>158690.9937660787</v>
       </c>
       <c r="C6" t="n">
-        <v>201482.5465725459</v>
+        <v>201482.5465725476</v>
       </c>
       <c r="D6" t="n">
-        <v>62245.57383437338</v>
+        <v>62245.57383437172</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446668</v>
+        <v>-41330.45664418833</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327079</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924298</v>
+        <v>483829.5798327079</v>
       </c>
       <c r="J6" t="n">
-        <v>412549.4762212906</v>
+        <v>411574.8849615688</v>
       </c>
       <c r="K6" t="n">
-        <v>460126.9249992953</v>
+        <v>459152.3337395741</v>
       </c>
       <c r="L6" t="n">
-        <v>408308.013154258</v>
+        <v>407333.4218945362</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585924</v>
+        <v>349028.5645988707</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327079</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924299</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924299</v>
+        <v>483829.579832708</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593878</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026383</v>
+        <v>82.53894384026246</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576988</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406676</v>
+        <v>95.88311714406524</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406676</v>
+        <v>95.88311714406541</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081347</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406676</v>
+        <v>95.88311714406524</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>200.2146775546514</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>95.99825927078942</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27514,16 +27514,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>101.5322783886293</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>9.064549581141335</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27557,7 +27557,7 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27593,13 +27593,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>264.7356798764748</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705985</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>285.2130727870212</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>68.90648027293503</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>42.79050283128817</v>
-      </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.181917138522</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,13 +27675,13 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>80.69052336281891</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129696</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>119.9947225474043</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.740305804518556</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302590054</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358476</v>
+        <v>78.37121764358493</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322663</v>
+        <v>68.41045236322682</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>170.1634217103586</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>285.7800647703624</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>321.0995824603838</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.22188602514142</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30516,10 +30516,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.469713239998782e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30696,19 +30696,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5.732104446271227e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.374552885306849e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246795</v>
+        <v>0.4726038374246742</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8400540500255</v>
+        <v>4.840054050025446</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231498</v>
+        <v>18.22005944231477</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662293</v>
+        <v>40.11165994662248</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480963</v>
+        <v>60.11698038480895</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439518</v>
+        <v>74.58043007439434</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819632</v>
+        <v>82.98509856819538</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127919</v>
+        <v>84.32788422127825</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288753</v>
+        <v>79.62842981288664</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646575</v>
+        <v>67.96102257646498</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869439</v>
+        <v>51.03589764869383</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262805</v>
+        <v>29.68720080262772</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453149</v>
+        <v>10.76945994531478</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326536</v>
+        <v>2.068823298326512</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397435</v>
+        <v>0.03780830699397393</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560445</v>
+        <v>0.2528653456560417</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941272</v>
+        <v>2.442146890941245</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596271</v>
+        <v>8.706109488596173</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182832</v>
+        <v>23.89022987182805</v>
       </c>
       <c r="K6" t="n">
-        <v>40.8322080307833</v>
+        <v>40.83220803078284</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483547</v>
+        <v>54.90394270483485</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486706</v>
+        <v>64.07031148486634</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270959</v>
+        <v>65.76606198270885</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106775</v>
+        <v>60.16309827106708</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496872</v>
+        <v>48.28619043496818</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128737</v>
+        <v>32.27803956128701</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134635</v>
+        <v>15.69983260134617</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707666</v>
+        <v>4.696862889707614</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359232</v>
+        <v>1.01922479235922</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368715</v>
+        <v>0.01663587800368696</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005377</v>
+        <v>0.2119938115005353</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8848177058866</v>
+        <v>1.884817705886579</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761628</v>
+        <v>6.375232076761556</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308802</v>
+        <v>14.98796247308785</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342611</v>
+        <v>24.62982646342583</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072541</v>
+        <v>31.51769812072505</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094338</v>
+        <v>33.23099356094301</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898686</v>
+        <v>32.44083480898649</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736693</v>
+        <v>29.96436164736659</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275594</v>
+        <v>25.63968789275565</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846776</v>
+        <v>17.75159088846756</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651449</v>
+        <v>9.532012651651343</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513915</v>
+        <v>3.694473969513874</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477519</v>
+        <v>0.9057917400477418</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912012</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>94.23794409861753</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>144.9277431142228</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201041</v>
+        <v>28.16237059200996</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109931</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.4752296548576</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337551</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366715</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539462</v>
+        <v>230.3303996539453</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926789</v>
+        <v>158.5267349926781</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414959</v>
+        <v>41.04519843414902</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557046</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>167.4560060690025</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284198</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464222</v>
+        <v>102.2373492012895</v>
       </c>
       <c r="O6" t="n">
-        <v>148.8842513621125</v>
+        <v>311.4291731033522</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.7745516605751</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.373553211115</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543254</v>
+        <v>2.360334637542977</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104154</v>
+        <v>59.10772338104119</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.81487052278359</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821546</v>
+        <v>76.57300718821509</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614066</v>
+        <v>54.54948956140626</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764943</v>
+        <v>22.91824715764913</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>510.1640057735818</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,7 +36208,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>355.2284708785892</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>670.9270633411907</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>420.3538061121876</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>546.504348532127</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>254.358368045384</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
